--- a/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A580C8-DC25-4CCB-8F5C-1FD04EE3E612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040635BD-41CA-4C67-AF92-07AC632650F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>PostingDate</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>actual_360</t>
-  </si>
-  <si>
-    <t>current</t>
   </si>
   <si>
     <t>Sporting Goods and Outdoors</t>
@@ -589,7 +586,7 @@
   <dimension ref="A1:Q1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7">
         <v>100000</v>
@@ -684,11 +681,11 @@
       <c r="K2" s="7">
         <v>100000</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="N2" s="6">
         <f>A2</f>
@@ -715,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7">
         <v>150000</v>
@@ -738,11 +735,11 @@
       <c r="K3" s="7">
         <v>150000</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="7">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="N3" s="6">
         <f>A3</f>
@@ -800,22 +797,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,10 +823,10 @@
         <v>44592</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7">
         <v>100000</v>
@@ -846,10 +843,10 @@
         <v>44592</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="7">
         <v>150000</v>
@@ -866,10 +863,10 @@
         <v>44592</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7">
         <v>100</v>
@@ -886,10 +883,10 @@
         <v>44592</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -906,10 +903,10 @@
         <v>44592</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16">
         <v>50</v>
@@ -926,10 +923,10 @@
         <v>44592</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="16">
         <v>40</v>
@@ -965,27 +962,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,16 +994,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,16 +1015,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,16 +1036,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,16 +1057,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,16 +1120,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,16 +1141,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,16 +1162,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,16 +1183,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,16 +1204,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,16 +1225,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,45 +1267,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1">
         <v>-100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1324,25 +1321,25 @@
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
         <v>-100</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -1350,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="10">
         <v>200</v>
@@ -1358,15 +1355,15 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10">
@@ -1374,30 +1371,30 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -1405,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1">
         <v>100</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>-200</v>
@@ -1435,7 +1432,7 @@
         <v>Revenue</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="10">
         <f>O11</f>
@@ -1473,16 +1470,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1">
         <v>1200</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" ref="K14:K22" si="0">N13</f>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
         <v>-1200</v>
@@ -1508,7 +1505,7 @@
         <v>Def Revenue</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="0"/>
@@ -1542,16 +1539,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="0"/>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>-100</v>
@@ -1578,7 +1575,7 @@
         <v>Revenue</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="0"/>
@@ -1623,16 +1620,16 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" si="0"/>

--- a/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040635BD-41CA-4C67-AF92-07AC632650F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F54047-A0C0-48F6-B755-94F7E11981A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:Q1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>44591</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>51</v>
@@ -709,7 +709,7 @@
         <v>44591</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>51</v>

--- a/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ActivityData/ActivityData_JAN1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F54047-A0C0-48F6-B755-94F7E11981A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35015FB0-FFA1-4C8C-9D8D-BB8D3FE69058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -317,7 +317,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:Q1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -782,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -828,11 +829,11 @@
       <c r="D2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="16">
         <v>100000</v>
       </c>
       <c r="F2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,11 +849,11 @@
       <c r="D3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="16">
         <v>150000</v>
       </c>
       <c r="F3" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,11 +869,11 @@
       <c r="D4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="E4" s="16">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,11 +889,11 @@
       <c r="D5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="16">
         <v>200</v>
       </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,11 +909,11 @@
       <c r="D6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>50</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="F6" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,11 +929,11 @@
       <c r="D7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>40</v>
       </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="F7" s="14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
